--- a/Data/Full-Text Screening for Reporting.xlsx
+++ b/Data/Full-Text Screening for Reporting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\Research\Projects\Body Dissatisfaction Meta-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\Research\Projects\Body Dissatisfaction Meta-Analysis\BD-depression-meta-analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E31C3F1-9FCF-43F1-9D03-082083264BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6788C27-1B9A-40BE-BF7E-3C6572284912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT Screening" sheetId="2" r:id="rId1"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -332,6 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -568,8 +569,8 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M31" sqref="M31"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,22 +583,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="17" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -635,8 +636,8 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1823,8 +1824,8 @@
       <c r="L31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>60</v>
+      <c r="M31" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2650,7 +2651,7 @@
       </c>
       <c r="M51" s="7">
         <f>COUNTIF(M3:M50, "Included")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
